--- a/Aluguel/devolucoes/df_recall.xlsx
+++ b/Aluguel/devolucoes/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="239">
   <si>
     <t>data</t>
   </si>
@@ -61,306 +61,585 @@
     <t>recallD2</t>
   </si>
   <si>
-    <t>202006010025423912-1</t>
-  </si>
-  <si>
-    <t>2022020200328093030001-2</t>
-  </si>
-  <si>
-    <t>2022020200328093040001-2</t>
-  </si>
-  <si>
-    <t>2022020200328093050001-2</t>
-  </si>
-  <si>
-    <t>2022020200328093060001-2</t>
-  </si>
-  <si>
-    <t>2022021700331471850001-1</t>
-  </si>
-  <si>
-    <t>2022021700331471860001-1</t>
-  </si>
-  <si>
-    <t>2022021700331471870001-1</t>
-  </si>
-  <si>
-    <t>2022022100332084390001-1</t>
-  </si>
-  <si>
-    <t>2022022200324698660001-2</t>
-  </si>
-  <si>
-    <t>2022022200325303520001-2</t>
-  </si>
-  <si>
-    <t>2022022200325303550001-2</t>
-  </si>
-  <si>
-    <t>2022022200325303600001-2</t>
-  </si>
-  <si>
-    <t>2022022200325324410001-2</t>
-  </si>
-  <si>
-    <t>2022022200325920910001-2</t>
-  </si>
-  <si>
-    <t>2022022200326417010001-2</t>
-  </si>
-  <si>
-    <t>2022022200326933980001-2</t>
-  </si>
-  <si>
-    <t>2022022200327070560001-2</t>
-  </si>
-  <si>
-    <t>2022022200328373140001-2</t>
-  </si>
-  <si>
-    <t>2022022200329062190001-2</t>
-  </si>
-  <si>
-    <t>2022022200330225760001-2</t>
-  </si>
-  <si>
-    <t>2022022200330225770001-2</t>
-  </si>
-  <si>
-    <t>2022022200330422770001-2</t>
-  </si>
-  <si>
-    <t>2022022300332868590001-1</t>
-  </si>
-  <si>
-    <t>2022022500333387270001-1</t>
-  </si>
-  <si>
-    <t>2022022500333426990001-1</t>
-  </si>
-  <si>
-    <t>2022022500333427000001-1</t>
-  </si>
-  <si>
-    <t>2022022500333427010001-1</t>
-  </si>
-  <si>
-    <t>2022030200333775530001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874340001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874350001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874360001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874370001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874380001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874400001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874410001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874420001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874460001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874480001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874500001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874510001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874520001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874530001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874550001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874580001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874600001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874620001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874660001-1</t>
-  </si>
-  <si>
-    <t>2022030200333874690001-1</t>
-  </si>
-  <si>
-    <t>2022030300326727780001-2</t>
-  </si>
-  <si>
-    <t>2022030300326836530001-2</t>
-  </si>
-  <si>
-    <t>2022030300333891680001-1</t>
-  </si>
-  <si>
-    <t>2022030300333891690001-1</t>
-  </si>
-  <si>
-    <t>2022030400327088830001-2</t>
-  </si>
-  <si>
-    <t>2022030400334474960001-1</t>
-  </si>
-  <si>
-    <t>2022030400334522780001-1</t>
-  </si>
-  <si>
-    <t>2022030800327622290001-2</t>
-  </si>
-  <si>
-    <t>2022030900335237420001-1</t>
-  </si>
-  <si>
-    <t>2022031000335695360001-1</t>
-  </si>
-  <si>
-    <t>2022031500336417020001-1</t>
-  </si>
-  <si>
-    <t>2022031500336417030001-1</t>
-  </si>
-  <si>
-    <t>2022031500336417040001-1</t>
-  </si>
-  <si>
-    <t>2022031500336490200001-1</t>
-  </si>
-  <si>
-    <t>2022031600336709100001-1</t>
-  </si>
-  <si>
-    <t>2022031700337012270001-1</t>
-  </si>
-  <si>
-    <t>2022031800337247800001-1</t>
-  </si>
-  <si>
-    <t>2022031800337247810001-1</t>
-  </si>
-  <si>
-    <t>2022031800337296540001-1</t>
-  </si>
-  <si>
-    <t>2022031800337570700001-1</t>
-  </si>
-  <si>
-    <t>2022031800337570710001-1</t>
-  </si>
-  <si>
-    <t>2022031800337570720001-1</t>
-  </si>
-  <si>
-    <t>2022031800337570740001-1</t>
-  </si>
-  <si>
-    <t>2022032100317580880001-2</t>
-  </si>
-  <si>
-    <t>2022032100317590580001-2</t>
-  </si>
-  <si>
-    <t>2022032100337671740001-1</t>
-  </si>
-  <si>
-    <t>2022032100338042770001-1</t>
-  </si>
-  <si>
-    <t>2022032200322378610001-2</t>
-  </si>
-  <si>
-    <t>2022032200327301580001-2</t>
-  </si>
-  <si>
-    <t>2022032200327759310001-2</t>
-  </si>
-  <si>
-    <t>2022032200338164120001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354490001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354500001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354510001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354520001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354530001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354540001-1</t>
-  </si>
-  <si>
-    <t>2022032200338354550001-1</t>
-  </si>
-  <si>
-    <t>2022032200338360200001-1</t>
-  </si>
-  <si>
-    <t>2022032300322378550001-2</t>
-  </si>
-  <si>
-    <t>2022032300322378590001-2</t>
-  </si>
-  <si>
-    <t>2022032300328316610001-2</t>
-  </si>
-  <si>
-    <t>2022032300338416450001-1</t>
-  </si>
-  <si>
-    <t>BRADESCO S/A CTVM</t>
+    <t>2022041900343307290001-1</t>
+  </si>
+  <si>
+    <t>2022050300346491000001-1</t>
+  </si>
+  <si>
+    <t>2022042800345723050001-1</t>
+  </si>
+  <si>
+    <t>2022051700350463440001-1</t>
+  </si>
+  <si>
+    <t>2022051700350500780001-1</t>
+  </si>
+  <si>
+    <t>2022051000348639850001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490600001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490650001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934750001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934800001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934830001-1</t>
+  </si>
+  <si>
+    <t>2022051300349722820001-1</t>
+  </si>
+  <si>
+    <t>2022042900345864980001-1</t>
+  </si>
+  <si>
+    <t>2022050300346502870001-1</t>
+  </si>
+  <si>
+    <t>2022050300346518360001-1</t>
+  </si>
+  <si>
+    <t>2022050500347321820001-1</t>
+  </si>
+  <si>
+    <t>2022051200349238050001-1</t>
+  </si>
+  <si>
+    <t>2022042800345686680001-1</t>
+  </si>
+  <si>
+    <t>2022042800345686690001-1</t>
+  </si>
+  <si>
+    <t>2022042800345686700001-1</t>
+  </si>
+  <si>
+    <t>2022051100340477600001-2</t>
+  </si>
+  <si>
+    <t>2022051700341793140001-2</t>
+  </si>
+  <si>
+    <t>2022051700341793150001-2</t>
+  </si>
+  <si>
+    <t>2022042900345803800001-1</t>
+  </si>
+  <si>
+    <t>2022050200346201280001-1</t>
+  </si>
+  <si>
+    <t>2022050400339317860001-2</t>
+  </si>
+  <si>
+    <t>2022050500339609730001-2</t>
+  </si>
+  <si>
+    <t>2022050500339611830001-2</t>
+  </si>
+  <si>
+    <t>2022050600348011790001-1</t>
+  </si>
+  <si>
+    <t>2022042000343812760001-1</t>
+  </si>
+  <si>
+    <t>2022050500347713750001-1</t>
+  </si>
+  <si>
+    <t>2022050900325303520001-2</t>
+  </si>
+  <si>
+    <t>2022050900325303550001-2</t>
+  </si>
+  <si>
+    <t>2022050900325324410001-2</t>
+  </si>
+  <si>
+    <t>2022050900328373140001-2</t>
+  </si>
+  <si>
+    <t>2022042700317580880001-2</t>
+  </si>
+  <si>
+    <t>2022042800339919860001-2</t>
+  </si>
+  <si>
+    <t>2022042900345860440001-1</t>
+  </si>
+  <si>
+    <t>2022050900325920910001-2</t>
+  </si>
+  <si>
+    <t>2022050900330225760001-2</t>
+  </si>
+  <si>
+    <t>2022050900330225770001-2</t>
+  </si>
+  <si>
+    <t>2022041300342609180001-1</t>
+  </si>
+  <si>
+    <t>2022041900343473240001-1</t>
+  </si>
+  <si>
+    <t>2022041900343473250001-1</t>
+  </si>
+  <si>
+    <t>2022041900343474570001-1</t>
+  </si>
+  <si>
+    <t>2022041900343486290001-1</t>
+  </si>
+  <si>
+    <t>2022042800338354490001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354510001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354530001-2</t>
+  </si>
+  <si>
+    <t>2022042800338354540001-2</t>
+  </si>
+  <si>
+    <t>2022051700350496320001-1</t>
+  </si>
+  <si>
+    <t>2022051700350496330001-1</t>
+  </si>
+  <si>
+    <t>2022051700350496340001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055770001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055790001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055830001-1</t>
+  </si>
+  <si>
+    <t>2022042900346055840001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036470001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345070001-1</t>
+  </si>
+  <si>
+    <t>2022050200346110750001-1</t>
+  </si>
+  <si>
+    <t>2022050400339233220001-2</t>
+  </si>
+  <si>
+    <t>2022051000348639880001-1</t>
+  </si>
+  <si>
+    <t>2022051100348861580001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934680001-1</t>
+  </si>
+  <si>
+    <t>2022050300346490990001-1</t>
+  </si>
+  <si>
+    <t>2022051700350297700001-1</t>
+  </si>
+  <si>
+    <t>2022050500347682670001-1</t>
+  </si>
+  <si>
+    <t>2022051200349156560001-1</t>
+  </si>
+  <si>
+    <t>2022050600347784130001-1</t>
+  </si>
+  <si>
+    <t>2022051000348640120001-1</t>
+  </si>
+  <si>
+    <t>2022042200343939140001-1</t>
+  </si>
+  <si>
+    <t>2022041800343036440001-1</t>
+  </si>
+  <si>
+    <t>2022041900343345010001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679260001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599820001-1</t>
+  </si>
+  <si>
+    <t>2022050400347018900001-1</t>
+  </si>
+  <si>
+    <t>2022050600347784090001-1</t>
+  </si>
+  <si>
+    <t>2022051000348639830001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490630001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490730001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934720001-1</t>
+  </si>
+  <si>
+    <t>2022042000343679190001-1</t>
+  </si>
+  <si>
+    <t>2022051100348861600001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490710001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934820001-1</t>
+  </si>
+  <si>
+    <t>2022042900345866510001-1</t>
+  </si>
+  <si>
+    <t>2022041400339478970001-2</t>
+  </si>
+  <si>
+    <t>2022042900345861620001-1</t>
+  </si>
+  <si>
+    <t>2022050400322378550001-2</t>
+  </si>
+  <si>
+    <t>2022050400322378590001-2</t>
+  </si>
+  <si>
+    <t>2022050400322378610001-2</t>
+  </si>
+  <si>
+    <t>2022050400327301580001-2</t>
+  </si>
+  <si>
+    <t>2022050400345861630001-2</t>
+  </si>
+  <si>
+    <t>2022050400345861640001-2</t>
+  </si>
+  <si>
+    <t>2022050400345861650001-2</t>
+  </si>
+  <si>
+    <t>2022050400346418580001-2</t>
+  </si>
+  <si>
+    <t>2022050400346419910001-2</t>
+  </si>
+  <si>
+    <t>2022050600348020210001-1</t>
+  </si>
+  <si>
+    <t>2022050600348020220001-1</t>
+  </si>
+  <si>
+    <t>2022050600348020230001-1</t>
+  </si>
+  <si>
+    <t>2022050600348020240001-1</t>
+  </si>
+  <si>
+    <t>2022050400346498860001-2</t>
+  </si>
+  <si>
+    <t>2022051000348751060001-1</t>
+  </si>
+  <si>
+    <t>2022051000348751190001-1</t>
+  </si>
+  <si>
+    <t>2022051700350297800001-1</t>
+  </si>
+  <si>
+    <t>2022050400337012270001-2</t>
+  </si>
+  <si>
+    <t>2022050400345735960001-2</t>
+  </si>
+  <si>
+    <t>2022050900348398160001-1</t>
+  </si>
+  <si>
+    <t>2022051000348726460001-1</t>
+  </si>
+  <si>
+    <t>2022051200349290050001-1</t>
+  </si>
+  <si>
+    <t>2022050500347536320001-1</t>
+  </si>
+  <si>
+    <t>2022050900348397900001-1</t>
+  </si>
+  <si>
+    <t>2022050900348397910001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490640001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490700001-1</t>
+  </si>
+  <si>
+    <t>2022051700350297540001-1</t>
+  </si>
+  <si>
+    <t>2022042600344638550001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934810001-1</t>
+  </si>
+  <si>
+    <t>2022051600350033890001-1</t>
+  </si>
+  <si>
+    <t>2022051600350134040001-1</t>
+  </si>
+  <si>
+    <t>2022051600350134240001-1</t>
+  </si>
+  <si>
+    <t>2022051600350134250001-1</t>
+  </si>
+  <si>
+    <t>2022042500344500330001-1</t>
+  </si>
+  <si>
+    <t>2022051700350541110001-1</t>
+  </si>
+  <si>
+    <t>2022051700350545050001-1</t>
+  </si>
+  <si>
+    <t>2022050600347980720001-1</t>
+  </si>
+  <si>
+    <t>2022042500344501870001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599770001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934690001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934700001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599800001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934790001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934710001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934670001-1</t>
+  </si>
+  <si>
+    <t>2022042900345819780001-1</t>
+  </si>
+  <si>
+    <t>2022042500344473360001-1</t>
+  </si>
+  <si>
+    <t>2022051300349515770001-1</t>
+  </si>
+  <si>
+    <t>2022051100348872900001-1</t>
+  </si>
+  <si>
+    <t>2022051100348873170001-1</t>
+  </si>
+  <si>
+    <t>2022051100348873280001-1</t>
+  </si>
+  <si>
+    <t>2022051100348873300001-1</t>
+  </si>
+  <si>
+    <t>2022051700350458650001-1</t>
+  </si>
+  <si>
+    <t>2022051100349003320001-1</t>
+  </si>
+  <si>
+    <t>2022042600344638540001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490720001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934770001-1</t>
+  </si>
+  <si>
+    <t>2022042800345599720001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934730001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934740001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934760001-1</t>
+  </si>
+  <si>
+    <t>2022051200340836360001-2</t>
+  </si>
+  <si>
+    <t>2022051700350324890001-1</t>
+  </si>
+  <si>
+    <t>2022051700350324960001-1</t>
+  </si>
+  <si>
+    <t>2022051600350228940001-1</t>
+  </si>
+  <si>
+    <t>2022041300342427870001-1</t>
+  </si>
+  <si>
+    <t>2022050300346490980001-1</t>
+  </si>
+  <si>
+    <t>2022051600349934780001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490680001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490660001-1</t>
+  </si>
+  <si>
+    <t>2022051300349490690001-1</t>
+  </si>
+  <si>
+    <t>2022042600344634270001-1</t>
+  </si>
+  <si>
+    <t>2022051700350537100001-1</t>
+  </si>
+  <si>
+    <t>2022051700350537140001-1</t>
+  </si>
+  <si>
+    <t>2022051700350537150001-1</t>
+  </si>
+  <si>
+    <t>2022042600344730100001-1</t>
+  </si>
+  <si>
+    <t>2022042600344731580001-1</t>
+  </si>
+  <si>
+    <t>2022050600347991310001-1</t>
+  </si>
+  <si>
+    <t>2022040800341729180001-1</t>
+  </si>
+  <si>
+    <t>2022041100341958270001-1</t>
+  </si>
+  <si>
+    <t>2022041200342324640001-1</t>
+  </si>
+  <si>
+    <t>2022041900343478200001-1</t>
+  </si>
+  <si>
+    <t>2022042600344917130001-1</t>
+  </si>
+  <si>
+    <t>2022042600344917140001-1</t>
+  </si>
+  <si>
+    <t>2022042900345819790001-1</t>
+  </si>
+  <si>
+    <t>2022050300346782190001-1</t>
+  </si>
+  <si>
+    <t>2022050300346782200001-1</t>
+  </si>
+  <si>
+    <t>2022050300346782210001-1</t>
+  </si>
+  <si>
+    <t>2022051200340968620001-2</t>
+  </si>
+  <si>
+    <t>2022051300341176230001-2</t>
+  </si>
+  <si>
+    <t>2022042000343702740001-1</t>
+  </si>
+  <si>
+    <t>2022042000336417020001-2</t>
+  </si>
+  <si>
+    <t>2022042000336417030001-2</t>
+  </si>
+  <si>
+    <t>2022050500347682680001-1</t>
+  </si>
+  <si>
+    <t>2022051200349337320001-1</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE (BRASIL) S.A. CTVM</t>
+  </si>
+  <si>
+    <t>MERRILL LYNCH S/A CTVM</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
+  </si>
+  <si>
+    <t>UBS BRASIL CCTVM S/A</t>
+  </si>
+  <si>
+    <t>ATIVA INVESTIMENTOS S/A CTCV</t>
+  </si>
+  <si>
+    <t>MODAL DTVM LTDA</t>
+  </si>
+  <si>
+    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
+  </si>
+  <si>
+    <t>TERRA INVESTIMENTOS DTVM LTDA</t>
   </si>
   <si>
     <t>CM CAPITAL MARKETS CCTVM LTDA</t>
   </si>
   <si>
-    <t>UBS BRASIL CCTVM S/A</t>
-  </si>
-  <si>
-    <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
-  </si>
-  <si>
-    <t>MODAL DTVM LTDA</t>
-  </si>
-  <si>
-    <t>SAFRA CORRETORA DE VALORES E CAMBIO LTDA</t>
-  </si>
-  <si>
-    <t>TERRA INVESTIMENTOS DTVM LTDA</t>
-  </si>
-  <si>
-    <t>ORAMA DTVM S A</t>
-  </si>
-  <si>
     <t>SANTANDER CCVM S/A</t>
   </si>
   <si>
@@ -370,28 +649,88 @@
     <t>T</t>
   </si>
   <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
+  </si>
+  <si>
     <t>BOVA11</t>
   </si>
   <si>
-    <t>AMER9</t>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>GOLL10</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
   </si>
   <si>
     <t>VIIA3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
   </si>
 </sst>
 </file>
@@ -753,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,34 +1147,34 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="B2" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2">
-        <v>44692</v>
+        <v>44711</v>
       </c>
       <c r="F2">
-        <v>4.97</v>
+        <v>0.98</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="I2">
-        <v>-300</v>
+        <v>-2300</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -858,34 +1197,34 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="B3" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2">
-        <v>44809</v>
+        <v>44722</v>
       </c>
       <c r="F3">
-        <v>18.38</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="I3">
-        <v>-91</v>
+        <v>-1000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -908,34 +1247,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>278</v>
+        <v>512</v>
       </c>
       <c r="B4" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="E4" s="2">
-        <v>44809</v>
+        <v>44719</v>
       </c>
       <c r="F4">
-        <v>18.38</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="I4">
-        <v>-47</v>
+        <v>-4000</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -958,34 +1297,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="B5" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="E5" s="2">
-        <v>44809</v>
+        <v>44739</v>
       </c>
       <c r="F5">
-        <v>18.38</v>
+        <v>0.71</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="I5">
-        <v>-169</v>
+        <v>-39550</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1008,34 +1347,34 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>280</v>
+        <v>514</v>
       </c>
       <c r="B6" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2">
-        <v>44809</v>
+        <v>44739</v>
       </c>
       <c r="F6">
-        <v>18.38</v>
+        <v>0.71</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="I6">
-        <v>-23</v>
+        <v>-53221</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1058,34 +1397,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="B7" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2">
-        <v>44651</v>
+        <v>44732</v>
       </c>
       <c r="F7">
-        <v>5.41</v>
+        <v>0.67</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="I7">
-        <v>-24859</v>
+        <v>-10958</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1108,34 +1447,34 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>363</v>
+        <v>516</v>
       </c>
       <c r="B8" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2">
-        <v>44651</v>
+        <v>44735</v>
       </c>
       <c r="F8">
-        <v>5.41</v>
+        <v>0.71</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="I8">
-        <v>-17781</v>
+        <v>-37835</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1158,34 +1497,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>364</v>
+        <v>517</v>
       </c>
       <c r="B9" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E9" s="2">
-        <v>44651</v>
+        <v>44735</v>
       </c>
       <c r="F9">
-        <v>5.41</v>
+        <v>0.71</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="I9">
-        <v>-2233</v>
+        <v>-16450</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1208,34 +1547,34 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>365</v>
+        <v>518</v>
       </c>
       <c r="B10" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E10" s="2">
-        <v>44655</v>
+        <v>44736</v>
       </c>
       <c r="F10">
-        <v>5.34</v>
+        <v>0.71</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="I10">
-        <v>-9500</v>
+        <v>-68100</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1258,34 +1597,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="B11" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2">
-        <v>44656</v>
+        <v>44736</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>0.71</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="I11">
-        <v>-11880</v>
+        <v>-40000</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1308,34 +1647,34 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>284</v>
+        <v>520</v>
       </c>
       <c r="B12" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E12" s="2">
-        <v>44656</v>
+        <v>44736</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0.71</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="I12">
-        <v>-2832</v>
+        <v>-3399</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1358,37 +1697,37 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>285</v>
+        <v>521</v>
       </c>
       <c r="B13" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2">
-        <v>44656</v>
+        <v>44735</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>16.73</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I13">
-        <v>-1299</v>
+        <v>-2500</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1400,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1408,34 +1747,34 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>286</v>
+        <v>522</v>
       </c>
       <c r="B14" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2">
-        <v>44656</v>
+        <v>44720</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>11.68</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I14">
-        <v>-3915</v>
+        <v>-400</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1458,34 +1797,34 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>287</v>
+        <v>523</v>
       </c>
       <c r="B15" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="E15" s="2">
-        <v>44656</v>
+        <v>44722</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>11.7</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I15">
-        <v>-1404</v>
+        <v>-1000</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1508,34 +1847,34 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>292</v>
+        <v>524</v>
       </c>
       <c r="B16" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2">
-        <v>44656</v>
+        <v>44722</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>11.7</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I16">
-        <v>-1800</v>
+        <v>-1100</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1558,34 +1897,34 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>337</v>
+        <v>525</v>
       </c>
       <c r="B17" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2">
-        <v>44656</v>
+        <v>44726</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I17">
-        <v>-12800</v>
+        <v>-8600</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1608,34 +1947,34 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="B18" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="E18" s="2">
-        <v>44656</v>
+        <v>44734</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>15.75</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I18">
-        <v>-22688</v>
+        <v>-6200</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1658,34 +1997,34 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>288</v>
+        <v>527</v>
       </c>
       <c r="B19" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2">
-        <v>44656</v>
+        <v>44719</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>1.81</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I19">
-        <v>-10000</v>
+        <v>-5100</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1708,34 +2047,34 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>289</v>
+        <v>528</v>
       </c>
       <c r="B20" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2">
-        <v>44656</v>
+        <v>44719</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1.81</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I20">
-        <v>-1000</v>
+        <v>-1340</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1758,34 +2097,34 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>339</v>
+        <v>529</v>
       </c>
       <c r="B21" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2">
-        <v>44656</v>
+        <v>44719</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1.81</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I21">
-        <v>-9000</v>
+        <v>-5055</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1808,34 +2147,34 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="B22" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="E22" s="2">
-        <v>44656</v>
+        <v>44733</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I22">
-        <v>-3200</v>
+        <v>-5000</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1858,34 +2197,34 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="B23" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="E23" s="2">
-        <v>44656</v>
+        <v>44739</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I23">
-        <v>-4100</v>
+        <v>-2000</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1908,34 +2247,34 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>340</v>
+        <v>532</v>
       </c>
       <c r="B24" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="E24" s="2">
-        <v>44656</v>
+        <v>44739</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I24">
-        <v>-11000</v>
+        <v>-1500</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1958,34 +2297,34 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>297</v>
+        <v>533</v>
       </c>
       <c r="B25" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="E25" s="2">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I25">
-        <v>-920</v>
+        <v>-31000</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2008,34 +2347,34 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>355</v>
+        <v>534</v>
       </c>
       <c r="B26" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="E26" s="2">
-        <v>44659</v>
+        <v>44721</v>
       </c>
       <c r="F26">
-        <v>7.91</v>
+        <v>1.94</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I26">
-        <v>-3000</v>
+        <v>-99075</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2058,34 +2397,34 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B27" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="E27" s="2">
-        <v>44659</v>
+        <v>44725</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>1.93</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I27">
-        <v>-17478</v>
+        <v>-1997</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2108,34 +2447,34 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>299</v>
+        <v>536</v>
       </c>
       <c r="B28" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="E28" s="2">
-        <v>44659</v>
+        <v>44726</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I28">
-        <v>-13604</v>
+        <v>-55804</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2158,34 +2497,34 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B29" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="E29" s="2">
-        <v>44659</v>
+        <v>44726</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>1.92</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I29">
-        <v>-2466</v>
+        <v>-8620</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2208,34 +2547,34 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>281</v>
+        <v>538</v>
       </c>
       <c r="B30" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2">
-        <v>44662</v>
+        <v>44727</v>
       </c>
       <c r="F30">
-        <v>0.1</v>
+        <v>1.98</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="I30">
-        <v>-2300</v>
+        <v>-18151</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2258,34 +2597,34 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="B31" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E31" s="2">
-        <v>44662</v>
+        <v>44712</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>1.68</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I31">
-        <v>-19628</v>
+        <v>-4000</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2308,34 +2647,34 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>302</v>
+        <v>540</v>
       </c>
       <c r="B32" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E32" s="2">
-        <v>44662</v>
+        <v>44726</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>1.92</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I32">
-        <v>-1800</v>
+        <v>-1368</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2358,34 +2697,34 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>303</v>
+        <v>541</v>
       </c>
       <c r="B33" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I33">
-        <v>-900</v>
+        <v>-2476</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2408,34 +2747,34 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>304</v>
+        <v>542</v>
       </c>
       <c r="B34" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I34">
-        <v>-934</v>
+        <v>-1299</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2458,34 +2797,34 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>305</v>
+        <v>543</v>
       </c>
       <c r="B35" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E35" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I35">
-        <v>-900</v>
+        <v>-1404</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2508,34 +2847,34 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>306</v>
+        <v>544</v>
       </c>
       <c r="B36" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E36" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I36">
-        <v>-150</v>
+        <v>-1000</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2558,34 +2897,34 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>307</v>
+        <v>545</v>
       </c>
       <c r="B37" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E37" s="2">
-        <v>44662</v>
+        <v>44718</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I37">
-        <v>-650</v>
+        <v>-2830</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2608,34 +2947,34 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>308</v>
+        <v>546</v>
       </c>
       <c r="B38" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E38" s="2">
-        <v>44662</v>
+        <v>44712</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>1.81</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I38">
-        <v>-214</v>
+        <v>-69313</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2658,34 +2997,34 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>309</v>
+        <v>547</v>
       </c>
       <c r="B39" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E39" s="2">
-        <v>44662</v>
+        <v>44720</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I39">
-        <v>-260</v>
+        <v>-1050</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2708,34 +3047,34 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>310</v>
+        <v>548</v>
       </c>
       <c r="B40" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E40" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I40">
-        <v>-70</v>
+        <v>-1800</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2758,34 +3097,34 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>311</v>
+        <v>549</v>
       </c>
       <c r="B41" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E41" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I41">
-        <v>-83</v>
+        <v>-3200</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2808,34 +3147,34 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="B42" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E42" s="2">
-        <v>44662</v>
+        <v>44729</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>1.94</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I42">
-        <v>-108</v>
+        <v>-4100</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2858,34 +3197,34 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>313</v>
+        <v>551</v>
       </c>
       <c r="B43" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E43" s="2">
-        <v>44662</v>
+        <v>44706</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1.76</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I43">
-        <v>-94</v>
+        <v>-54177</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2908,34 +3247,34 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>314</v>
+        <v>552</v>
       </c>
       <c r="B44" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E44" s="2">
-        <v>44662</v>
+        <v>44711</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I44">
-        <v>-133</v>
+        <v>-450</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2958,34 +3297,34 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="B45" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E45" s="2">
-        <v>44662</v>
+        <v>44711</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I45">
-        <v>-83</v>
+        <v>-20</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3008,34 +3347,34 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>316</v>
+        <v>554</v>
       </c>
       <c r="B46" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E46" s="2">
-        <v>44662</v>
+        <v>44711</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>1.68</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I46">
-        <v>-220</v>
+        <v>-1300</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3058,34 +3397,34 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>317</v>
+        <v>555</v>
       </c>
       <c r="B47" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E47" s="2">
-        <v>44662</v>
+        <v>44711</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I47">
-        <v>-260</v>
+        <v>-2056</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3108,34 +3447,34 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="B48" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E48" s="2">
-        <v>44662</v>
+        <v>44719</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I48">
-        <v>-167</v>
+        <v>-160</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3158,34 +3497,34 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>319</v>
+        <v>557</v>
       </c>
       <c r="B49" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E49" s="2">
-        <v>44662</v>
+        <v>44719</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H49" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I49">
-        <v>-70</v>
+        <v>-500</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3208,34 +3547,34 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>320</v>
+        <v>558</v>
       </c>
       <c r="B50" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E50" s="2">
-        <v>44662</v>
+        <v>44719</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I50">
-        <v>-90</v>
+        <v>-25322</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3258,34 +3597,34 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>356</v>
+        <v>559</v>
       </c>
       <c r="B51" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="E51" s="2">
-        <v>44663</v>
+        <v>44719</v>
       </c>
       <c r="F51">
-        <v>7.71</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I51">
-        <v>-9271</v>
+        <v>-535</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3308,34 +3647,34 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>351</v>
+        <v>560</v>
       </c>
       <c r="B52" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="E52" s="2">
-        <v>44663</v>
+        <v>44739</v>
       </c>
       <c r="F52">
-        <v>7.71</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I52">
-        <v>-30000</v>
+        <v>-1507</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3358,34 +3697,34 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>321</v>
+        <v>561</v>
       </c>
       <c r="B53" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E53" s="2">
-        <v>44662</v>
+        <v>44739</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H53" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I53">
-        <v>-27151</v>
+        <v>-888</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3408,34 +3747,34 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>322</v>
+        <v>562</v>
       </c>
       <c r="B54" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E54" s="2">
-        <v>44662</v>
+        <v>44739</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H54" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I54">
-        <v>-1621</v>
+        <v>-210</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3458,34 +3797,34 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>352</v>
+        <v>563</v>
       </c>
       <c r="B55" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E55" s="2">
-        <v>44664</v>
+        <v>44713</v>
       </c>
       <c r="F55">
-        <v>7.91</v>
+        <v>1.89</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I55">
-        <v>-9215</v>
+        <v>-172300</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3508,34 +3847,34 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>353</v>
+        <v>564</v>
       </c>
       <c r="B56" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="E56" s="2">
-        <v>44664</v>
+        <v>44713</v>
       </c>
       <c r="F56">
-        <v>7.91</v>
+        <v>1.89</v>
       </c>
       <c r="G56" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I56">
-        <v>-312372</v>
+        <v>-96900</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3558,34 +3897,34 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>323</v>
+        <v>565</v>
       </c>
       <c r="B57" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="E57" s="2">
-        <v>44664</v>
+        <v>44713</v>
       </c>
       <c r="F57">
-        <v>5.5</v>
+        <v>1.89</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="I57">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3608,34 +3947,34 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>346</v>
+        <v>566</v>
       </c>
       <c r="B58" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="E58" s="2">
-        <v>44669</v>
+        <v>44713</v>
       </c>
       <c r="F58">
-        <v>7.89</v>
+        <v>1.89</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H58" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I58">
-        <v>-85000</v>
+        <v>-500</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3658,34 +3997,34 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>347</v>
+        <v>567</v>
       </c>
       <c r="B59" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E59" s="2">
-        <v>44670</v>
+        <v>44708</v>
       </c>
       <c r="F59">
-        <v>7.89</v>
+        <v>1.69</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I59">
-        <v>-50000</v>
+        <v>-2304</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3708,34 +4047,34 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>348</v>
+        <v>568</v>
       </c>
       <c r="B60" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E60" s="2">
-        <v>44671</v>
+        <v>44711</v>
       </c>
       <c r="F60">
-        <v>7.83</v>
+        <v>1.68</v>
       </c>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I60">
-        <v>-2396</v>
+        <v>-6071</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3758,34 +4097,34 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>366</v>
+        <v>569</v>
       </c>
       <c r="B61" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E61" s="2">
-        <v>44677</v>
+        <v>44721</v>
       </c>
       <c r="F61">
-        <v>6.15</v>
+        <v>1.94</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H61" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="I61">
-        <v>-373</v>
+        <v>-14300</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3808,34 +4147,34 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>367</v>
+        <v>570</v>
       </c>
       <c r="B62" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E62" s="2">
-        <v>44677</v>
+        <v>44725</v>
       </c>
       <c r="F62">
-        <v>6.15</v>
+        <v>1.93</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="I62">
-        <v>-1500</v>
+        <v>-15</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3858,34 +4197,34 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>368</v>
+        <v>571</v>
       </c>
       <c r="B63" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E63" s="2">
-        <v>44677</v>
+        <v>44732</v>
       </c>
       <c r="F63">
-        <v>6.15</v>
+        <v>1.92</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H63" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="I63">
-        <v>-1000</v>
+        <v>-5678</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3908,34 +4247,34 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>349</v>
+        <v>572</v>
       </c>
       <c r="B64" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E64" s="2">
-        <v>44677</v>
+        <v>44733</v>
       </c>
       <c r="F64">
-        <v>7.59</v>
+        <v>1.97</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H64" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="I64">
-        <v>-11800</v>
+        <v>-70</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3958,34 +4297,34 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>357</v>
+        <v>573</v>
       </c>
       <c r="B65" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E65" s="2">
-        <v>44678</v>
+        <v>44736</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>2.07</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H65" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="I65">
-        <v>-48200</v>
+        <v>-10118</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4008,34 +4347,34 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>350</v>
+        <v>574</v>
       </c>
       <c r="B66" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="E66" s="2">
-        <v>44679</v>
+        <v>44722</v>
       </c>
       <c r="F66">
-        <v>8.949999999999999</v>
+        <v>6.06</v>
       </c>
       <c r="G66" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H66" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="I66">
-        <v>-40693</v>
+        <v>-3553</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4058,34 +4397,34 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>361</v>
+        <v>575</v>
       </c>
       <c r="B67" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E67" s="2">
-        <v>44680</v>
+        <v>44739</v>
       </c>
       <c r="F67">
-        <v>0.5600000000000001</v>
+        <v>4.79</v>
       </c>
       <c r="G67" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H67" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="I67">
-        <v>-41692</v>
+        <v>-4535</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4108,34 +4447,34 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>282</v>
+        <v>576</v>
       </c>
       <c r="B68" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="E68" s="2">
-        <v>44680</v>
+        <v>44726</v>
       </c>
       <c r="F68">
-        <v>25.18</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H68" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="I68">
-        <v>-10300</v>
+        <v>-18240</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4158,34 +4497,34 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>358</v>
+        <v>577</v>
       </c>
       <c r="B69" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="E69" s="2">
-        <v>44680</v>
+        <v>44734</v>
       </c>
       <c r="F69">
-        <v>70</v>
+        <v>4.94</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H69" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="I69">
-        <v>-4200</v>
+        <v>-3600</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4208,34 +4547,34 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>324</v>
+        <v>578</v>
       </c>
       <c r="B70" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E70" s="2">
-        <v>44680</v>
+        <v>44727</v>
       </c>
       <c r="F70">
-        <v>5.5</v>
+        <v>5.07</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H70" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="I70">
-        <v>-287</v>
+        <v>-6796</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4258,34 +4597,34 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>325</v>
+        <v>579</v>
       </c>
       <c r="B71" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E71" s="2">
-        <v>44680</v>
+        <v>44732</v>
       </c>
       <c r="F71">
-        <v>5.5</v>
+        <v>5.07</v>
       </c>
       <c r="G71" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="I71">
-        <v>-674</v>
+        <v>-19794</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4308,34 +4647,34 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>326</v>
+        <v>580</v>
       </c>
       <c r="B72" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E72" s="2">
-        <v>44680</v>
+        <v>44713</v>
       </c>
       <c r="F72">
-        <v>5.5</v>
+        <v>5.27</v>
       </c>
       <c r="G72" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H72" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I72">
-        <v>-1587</v>
+        <v>-619</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4358,34 +4697,34 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>327</v>
+        <v>581</v>
       </c>
       <c r="B73" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E73" s="2">
-        <v>44680</v>
+        <v>44708</v>
       </c>
       <c r="F73">
-        <v>5.5</v>
+        <v>5.27</v>
       </c>
       <c r="G73" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H73" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I73">
-        <v>-280</v>
+        <v>-4600</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4408,34 +4747,34 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>295</v>
+        <v>582</v>
       </c>
       <c r="B74" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="E74" s="2">
-        <v>44683</v>
+        <v>44711</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>5.27</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H74" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I74">
-        <v>-2830</v>
+        <v>-1100</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4458,34 +4797,34 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>296</v>
+        <v>583</v>
       </c>
       <c r="B75" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="E75" s="2">
-        <v>44683</v>
+        <v>44712</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>5.27</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H75" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I75">
-        <v>-50</v>
+        <v>-12900</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4508,34 +4847,34 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>290</v>
+        <v>584</v>
       </c>
       <c r="B76" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E76" s="2">
-        <v>44680</v>
+        <v>44719</v>
       </c>
       <c r="F76">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H76" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I76">
-        <v>-26203</v>
+        <v>-1000</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4558,34 +4897,34 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="B77" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E77" s="2">
-        <v>44683</v>
+        <v>44725</v>
       </c>
       <c r="F77">
-        <v>4.17</v>
+        <v>2.73</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H77" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I77">
-        <v>-25628</v>
+        <v>-19600</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4608,34 +4947,34 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>341</v>
+        <v>586</v>
       </c>
       <c r="B78" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E78" s="2">
-        <v>44684</v>
+        <v>44727</v>
       </c>
       <c r="F78">
-        <v>9.41</v>
+        <v>2.5</v>
       </c>
       <c r="G78" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H78" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="I78">
-        <v>-14500</v>
+        <v>-5033</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4658,34 +4997,34 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="B79" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E79" s="2">
-        <v>44684</v>
+        <v>44732</v>
       </c>
       <c r="F79">
-        <v>9.41</v>
+        <v>2.5</v>
       </c>
       <c r="G79" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H79" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="I79">
-        <v>-319702</v>
+        <v>-800</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4708,34 +5047,34 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>343</v>
+        <v>588</v>
       </c>
       <c r="B80" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E80" s="2">
-        <v>44684</v>
+        <v>44735</v>
       </c>
       <c r="F80">
-        <v>9.41</v>
+        <v>2.51</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H80" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="I80">
-        <v>-57200</v>
+        <v>-10248</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4758,34 +5097,34 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="B81" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E81" s="2">
-        <v>44684</v>
+        <v>44735</v>
       </c>
       <c r="F81">
-        <v>40</v>
+        <v>2.51</v>
       </c>
       <c r="G81" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H81" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="I81">
-        <v>-10300</v>
+        <v>-17100</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4808,34 +5147,34 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>328</v>
+        <v>590</v>
       </c>
       <c r="B82" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E82" s="2">
-        <v>44684</v>
+        <v>44736</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>2.51</v>
       </c>
       <c r="G82" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H82" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="I82">
-        <v>-2150</v>
+        <v>-3000</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4858,34 +5197,34 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="B83" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E83" s="2">
-        <v>44684</v>
+        <v>44712</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>5.18</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="I83">
-        <v>-1800</v>
+        <v>-16600</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4908,34 +5247,34 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>330</v>
+        <v>592</v>
       </c>
       <c r="B84" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E84" s="2">
-        <v>44684</v>
+        <v>44733</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>4.57</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H84" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="I84">
-        <v>-3000</v>
+        <v>-1200</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4958,34 +5297,34 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>331</v>
+        <v>593</v>
       </c>
       <c r="B85" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E85" s="2">
-        <v>44684</v>
+        <v>44735</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>4.58</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="I85">
-        <v>-945</v>
+        <v>-32700</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5008,34 +5347,34 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>332</v>
+        <v>594</v>
       </c>
       <c r="B86" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E86" s="2">
-        <v>44684</v>
+        <v>44736</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="I86">
-        <v>-25322</v>
+        <v>-29625</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5058,34 +5397,34 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>333</v>
+        <v>595</v>
       </c>
       <c r="B87" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E87" s="2">
-        <v>44684</v>
+        <v>44720</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="I87">
-        <v>-535</v>
+        <v>-12900</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5108,34 +5447,34 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>334</v>
+        <v>596</v>
       </c>
       <c r="B88" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E88" s="2">
-        <v>44684</v>
+        <v>44874</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>18.38</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="I88">
-        <v>-2000</v>
+        <v>-24</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5158,34 +5497,34 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>335</v>
+        <v>597</v>
       </c>
       <c r="B89" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="E89" s="2">
-        <v>44684</v>
+        <v>44720</v>
       </c>
       <c r="F89">
-        <v>3.11</v>
+        <v>10.51</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="I89">
-        <v>-900</v>
+        <v>-3392</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5208,34 +5547,34 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>344</v>
+        <v>598</v>
       </c>
       <c r="B90" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="E90" s="2">
-        <v>44685</v>
+        <v>44725</v>
       </c>
       <c r="F90">
-        <v>9.1</v>
+        <v>16.42</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="I90">
         <v>-9550</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5258,34 +5597,34 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>345</v>
+        <v>599</v>
       </c>
       <c r="B91" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="E91" s="2">
-        <v>44685</v>
+        <v>44725</v>
       </c>
       <c r="F91">
-        <v>9.1</v>
+        <v>16.42</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="I91">
         <v>-9000</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5308,34 +5647,34 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>354</v>
+        <v>600</v>
       </c>
       <c r="B92" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="E92" s="2">
-        <v>44676</v>
+        <v>44725</v>
       </c>
       <c r="F92">
-        <v>9.1</v>
+        <v>16.42</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="I92">
-        <v>-168193</v>
+        <v>-14500</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5358,51 +5697,4651 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>360</v>
+        <v>601</v>
       </c>
       <c r="B93" s="2">
-        <v>44644</v>
+        <v>44699</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F93">
+        <v>16.42</v>
+      </c>
+      <c r="G93" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" t="s">
+        <v>221</v>
+      </c>
+      <c r="I93">
+        <v>-319702</v>
+      </c>
+      <c r="J93">
+        <v>-0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>602</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F94">
+        <v>16.42</v>
+      </c>
+      <c r="G94" t="s">
+        <v>209</v>
+      </c>
+      <c r="H94" t="s">
+        <v>221</v>
+      </c>
+      <c r="I94">
+        <v>-221173</v>
+      </c>
+      <c r="J94">
+        <v>-0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>603</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F95">
+        <v>16.42</v>
+      </c>
+      <c r="G95" t="s">
+        <v>209</v>
+      </c>
+      <c r="H95" t="s">
+        <v>221</v>
+      </c>
+      <c r="I95">
+        <v>-24558</v>
+      </c>
+      <c r="J95">
+        <v>-0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>604</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C96" t="s">
         <v>109</v>
       </c>
-      <c r="E93" s="2">
-        <v>44685</v>
-      </c>
-      <c r="F93">
-        <v>40</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F96">
+        <v>16.42</v>
+      </c>
+      <c r="G96" t="s">
+        <v>209</v>
+      </c>
+      <c r="H96" t="s">
+        <v>221</v>
+      </c>
+      <c r="I96">
+        <v>-30750</v>
+      </c>
+      <c r="J96">
+        <v>-0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>605</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F97">
+        <v>16.42</v>
+      </c>
+      <c r="G97" t="s">
+        <v>209</v>
+      </c>
+      <c r="H97" t="s">
+        <v>221</v>
+      </c>
+      <c r="I97">
+        <v>-94000</v>
+      </c>
+      <c r="J97">
+        <v>-0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>606</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F98">
+        <v>16.42</v>
+      </c>
+      <c r="G98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" t="s">
+        <v>221</v>
+      </c>
+      <c r="I98">
+        <v>-6000</v>
+      </c>
+      <c r="J98">
+        <v>-0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>607</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F99">
+        <v>19.28</v>
+      </c>
+      <c r="G99" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" t="s">
+        <v>221</v>
+      </c>
+      <c r="I99">
+        <v>-10700</v>
+      </c>
+      <c r="J99">
+        <v>-0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>608</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F100">
+        <v>19.28</v>
+      </c>
+      <c r="G100" t="s">
+        <v>209</v>
+      </c>
+      <c r="H100" t="s">
+        <v>221</v>
+      </c>
+      <c r="I100">
+        <v>-3100</v>
+      </c>
+      <c r="J100">
+        <v>-0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>609</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F101">
+        <v>19.28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" t="s">
+        <v>221</v>
+      </c>
+      <c r="I101">
+        <v>-3150</v>
+      </c>
+      <c r="J101">
+        <v>-0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>610</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F102">
+        <v>19.28</v>
+      </c>
+      <c r="G102" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" t="s">
+        <v>221</v>
+      </c>
+      <c r="I102">
+        <v>-299150</v>
+      </c>
+      <c r="J102">
+        <v>-0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>611</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C103" t="s">
         <v>116</v>
       </c>
-      <c r="H93" t="s">
+      <c r="D103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44718</v>
+      </c>
+      <c r="F103">
+        <v>16.42</v>
+      </c>
+      <c r="G103" t="s">
+        <v>209</v>
+      </c>
+      <c r="H103" t="s">
+        <v>221</v>
+      </c>
+      <c r="I103">
+        <v>-70200</v>
+      </c>
+      <c r="J103">
+        <v>-0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>612</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44732</v>
+      </c>
+      <c r="F104">
+        <v>19.03</v>
+      </c>
+      <c r="G104" t="s">
+        <v>209</v>
+      </c>
+      <c r="H104" t="s">
+        <v>221</v>
+      </c>
+      <c r="I104">
+        <v>-135000</v>
+      </c>
+      <c r="J104">
+        <v>-0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>613</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44732</v>
+      </c>
+      <c r="F105">
+        <v>19.03</v>
+      </c>
+      <c r="G105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" t="s">
+        <v>221</v>
+      </c>
+      <c r="I105">
+        <v>-135000</v>
+      </c>
+      <c r="J105">
+        <v>-0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>614</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F106">
+        <v>21.13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>209</v>
+      </c>
+      <c r="H106" t="s">
+        <v>221</v>
+      </c>
+      <c r="I106">
+        <v>-5700</v>
+      </c>
+      <c r="J106">
+        <v>-0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>615</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F107">
+        <v>16.42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>209</v>
+      </c>
+      <c r="H107" t="s">
+        <v>221</v>
+      </c>
+      <c r="I107">
+        <v>-40693</v>
+      </c>
+      <c r="J107">
+        <v>-0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>616</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44725</v>
+      </c>
+      <c r="F108">
+        <v>16.42</v>
+      </c>
+      <c r="G108" t="s">
+        <v>209</v>
+      </c>
+      <c r="H108" t="s">
+        <v>221</v>
+      </c>
+      <c r="I108">
+        <v>-26600</v>
+      </c>
+      <c r="J108">
+        <v>-0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>617</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44729</v>
+      </c>
+      <c r="F109">
+        <v>19.41</v>
+      </c>
+      <c r="G109" t="s">
+        <v>209</v>
+      </c>
+      <c r="H109" t="s">
+        <v>221</v>
+      </c>
+      <c r="I109">
+        <v>-350000</v>
+      </c>
+      <c r="J109">
+        <v>-0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>618</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C110" t="s">
         <v>123</v>
       </c>
-      <c r="I93">
-        <v>-325205</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
+      <c r="D110" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44732</v>
+      </c>
+      <c r="F110">
+        <v>19.03</v>
+      </c>
+      <c r="G110" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110" t="s">
+        <v>221</v>
+      </c>
+      <c r="I110">
+        <v>-130000</v>
+      </c>
+      <c r="J110">
+        <v>-0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1">
+        <v>619</v>
+      </c>
+      <c r="B111" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F111">
+        <v>16.84</v>
+      </c>
+      <c r="G111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H111" t="s">
+        <v>221</v>
+      </c>
+      <c r="I111">
+        <v>-91907</v>
+      </c>
+      <c r="J111">
+        <v>-0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <v>620</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44726</v>
+      </c>
+      <c r="F112">
+        <v>18.48</v>
+      </c>
+      <c r="G112" t="s">
+        <v>209</v>
+      </c>
+      <c r="H112" t="s">
+        <v>221</v>
+      </c>
+      <c r="I112">
+        <v>-31400</v>
+      </c>
+      <c r="J112">
+        <v>-0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>621</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44729</v>
+      </c>
+      <c r="F113">
+        <v>19.41</v>
+      </c>
+      <c r="G113" t="s">
+        <v>209</v>
+      </c>
+      <c r="H113" t="s">
+        <v>221</v>
+      </c>
+      <c r="I113">
+        <v>-33720</v>
+      </c>
+      <c r="J113">
+        <v>-0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1">
+        <v>622</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" t="s">
+        <v>208</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44729</v>
+      </c>
+      <c r="F114">
+        <v>19.41</v>
+      </c>
+      <c r="G114" t="s">
+        <v>209</v>
+      </c>
+      <c r="H114" t="s">
+        <v>221</v>
+      </c>
+      <c r="I114">
+        <v>-192120</v>
+      </c>
+      <c r="J114">
+        <v>-0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1">
+        <v>623</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F115">
+        <v>17.69</v>
+      </c>
+      <c r="G115" t="s">
+        <v>209</v>
+      </c>
+      <c r="H115" t="s">
+        <v>221</v>
+      </c>
+      <c r="I115">
+        <v>-4244</v>
+      </c>
+      <c r="J115">
+        <v>-0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1">
+        <v>624</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F116">
+        <v>17.69</v>
+      </c>
+      <c r="G116" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" t="s">
+        <v>221</v>
+      </c>
+      <c r="I116">
+        <v>-1456</v>
+      </c>
+      <c r="J116">
+        <v>-0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1">
+        <v>625</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117" t="s">
+        <v>199</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F117">
+        <v>0.18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>209</v>
+      </c>
+      <c r="H117" t="s">
+        <v>222</v>
+      </c>
+      <c r="I117">
+        <v>-1604</v>
+      </c>
+      <c r="J117">
+        <v>-0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1">
+        <v>626</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F118">
+        <v>0.24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>209</v>
+      </c>
+      <c r="H118" t="s">
+        <v>223</v>
+      </c>
+      <c r="I118">
+        <v>-8</v>
+      </c>
+      <c r="J118">
+        <v>-0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1">
+        <v>627</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F119">
+        <v>0.19</v>
+      </c>
+      <c r="G119" t="s">
+        <v>209</v>
+      </c>
+      <c r="H119" t="s">
+        <v>223</v>
+      </c>
+      <c r="I119">
+        <v>-92</v>
+      </c>
+      <c r="J119">
+        <v>-0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1">
+        <v>628</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F120">
+        <v>2.37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>209</v>
+      </c>
+      <c r="H120" t="s">
+        <v>224</v>
+      </c>
+      <c r="I120">
+        <v>-40000</v>
+      </c>
+      <c r="J120">
+        <v>-0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1">
+        <v>629</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" t="s">
+        <v>201</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F121">
+        <v>2.37</v>
+      </c>
+      <c r="G121" t="s">
+        <v>209</v>
+      </c>
+      <c r="H121" t="s">
+        <v>224</v>
+      </c>
+      <c r="I121">
+        <v>-3000</v>
+      </c>
+      <c r="J121">
+        <v>-0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1">
+        <v>630</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F122">
+        <v>2.37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>209</v>
+      </c>
+      <c r="H122" t="s">
+        <v>224</v>
+      </c>
+      <c r="I122">
+        <v>-6500</v>
+      </c>
+      <c r="J122">
+        <v>-0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1">
+        <v>631</v>
+      </c>
+      <c r="B123" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F123">
+        <v>2.37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>209</v>
+      </c>
+      <c r="H123" t="s">
+        <v>224</v>
+      </c>
+      <c r="I123">
+        <v>-5500</v>
+      </c>
+      <c r="J123">
+        <v>-0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1">
+        <v>632</v>
+      </c>
+      <c r="B124" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44714</v>
+      </c>
+      <c r="F124">
+        <v>2.31</v>
+      </c>
+      <c r="G124" t="s">
+        <v>209</v>
+      </c>
+      <c r="H124" t="s">
+        <v>224</v>
+      </c>
+      <c r="I124">
+        <v>-100000</v>
+      </c>
+      <c r="J124">
+        <v>-0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="1">
+        <v>633</v>
+      </c>
+      <c r="B125" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F125">
+        <v>0.52</v>
+      </c>
+      <c r="G125" t="s">
+        <v>209</v>
+      </c>
+      <c r="H125" t="s">
+        <v>225</v>
+      </c>
+      <c r="I125">
+        <v>-218000</v>
+      </c>
+      <c r="J125">
+        <v>-0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="1">
+        <v>634</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F126">
+        <v>0.52</v>
+      </c>
+      <c r="G126" t="s">
+        <v>209</v>
+      </c>
+      <c r="H126" t="s">
+        <v>225</v>
+      </c>
+      <c r="I126">
+        <v>-82000</v>
+      </c>
+      <c r="J126">
+        <v>-0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1">
+        <v>635</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F127">
+        <v>0.68</v>
+      </c>
+      <c r="G127" t="s">
+        <v>209</v>
+      </c>
+      <c r="H127" t="s">
+        <v>225</v>
+      </c>
+      <c r="I127">
+        <v>-200000</v>
+      </c>
+      <c r="J127">
+        <v>-0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="1">
+        <v>636</v>
+      </c>
+      <c r="B128" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44714</v>
+      </c>
+      <c r="F128">
+        <v>1.32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>209</v>
+      </c>
+      <c r="H128" t="s">
+        <v>225</v>
+      </c>
+      <c r="I128">
+        <v>-14500</v>
+      </c>
+      <c r="J128">
+        <v>-0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="1">
+        <v>637</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44719</v>
+      </c>
+      <c r="F129">
+        <v>1.07</v>
+      </c>
+      <c r="G129" t="s">
+        <v>209</v>
+      </c>
+      <c r="H129" t="s">
+        <v>225</v>
+      </c>
+      <c r="I129">
+        <v>-600</v>
+      </c>
+      <c r="J129">
+        <v>-0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1">
+        <v>638</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F130">
+        <v>0.53</v>
+      </c>
+      <c r="G130" t="s">
+        <v>209</v>
+      </c>
+      <c r="H130" t="s">
+        <v>225</v>
+      </c>
+      <c r="I130">
+        <v>-125662</v>
+      </c>
+      <c r="J130">
+        <v>-0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="1">
+        <v>639</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F131">
+        <v>0.53</v>
+      </c>
+      <c r="G131" t="s">
+        <v>209</v>
+      </c>
+      <c r="H131" t="s">
+        <v>225</v>
+      </c>
+      <c r="I131">
+        <v>-112</v>
+      </c>
+      <c r="J131">
+        <v>-0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1">
+        <v>640</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44719</v>
+      </c>
+      <c r="F132">
+        <v>0.2</v>
+      </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" t="s">
+        <v>226</v>
+      </c>
+      <c r="I132">
+        <v>-200</v>
+      </c>
+      <c r="J132">
+        <v>-0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="1">
+        <v>641</v>
+      </c>
+      <c r="B133" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>202</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F133">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G133" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133" t="s">
+        <v>226</v>
+      </c>
+      <c r="I133">
+        <v>-200</v>
+      </c>
+      <c r="J133">
+        <v>-0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1">
+        <v>642</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>202</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F134">
+        <v>0.2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>209</v>
+      </c>
+      <c r="H134" t="s">
+        <v>227</v>
+      </c>
+      <c r="I134">
+        <v>-1600</v>
+      </c>
+      <c r="J134">
+        <v>-0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1">
+        <v>643</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F135">
+        <v>8.98</v>
+      </c>
+      <c r="G135" t="s">
+        <v>209</v>
+      </c>
+      <c r="H135" t="s">
+        <v>228</v>
+      </c>
+      <c r="I135">
+        <v>-1300</v>
+      </c>
+      <c r="J135">
+        <v>-0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="1">
+        <v>644</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44720</v>
+      </c>
+      <c r="F136">
+        <v>3.2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>209</v>
+      </c>
+      <c r="H136" t="s">
+        <v>229</v>
+      </c>
+      <c r="I136">
+        <v>-234</v>
+      </c>
+      <c r="J136">
+        <v>-0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="1">
+        <v>645</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>208</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44714</v>
+      </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>209</v>
+      </c>
+      <c r="H137" t="s">
+        <v>229</v>
+      </c>
+      <c r="I137">
+        <v>-12000</v>
+      </c>
+      <c r="J137">
+        <v>-0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1">
+        <v>646</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F138">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" t="s">
+        <v>230</v>
+      </c>
+      <c r="I138">
+        <v>-60000</v>
+      </c>
+      <c r="J138">
+        <v>-0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1">
+        <v>647</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>201</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F139">
+        <v>60</v>
+      </c>
+      <c r="G139" t="s">
+        <v>209</v>
+      </c>
+      <c r="H139" t="s">
+        <v>230</v>
+      </c>
+      <c r="I139">
+        <v>-2475</v>
+      </c>
+      <c r="J139">
+        <v>-0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="1">
+        <v>648</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F140">
+        <v>60</v>
+      </c>
+      <c r="G140" t="s">
+        <v>209</v>
+      </c>
+      <c r="H140" t="s">
+        <v>230</v>
+      </c>
+      <c r="I140">
+        <v>-1100</v>
+      </c>
+      <c r="J140">
+        <v>-0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1">
+        <v>649</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" t="s">
+        <v>201</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F141">
+        <v>60</v>
+      </c>
+      <c r="G141" t="s">
+        <v>209</v>
+      </c>
+      <c r="H141" t="s">
+        <v>230</v>
+      </c>
+      <c r="I141">
+        <v>-500</v>
+      </c>
+      <c r="J141">
+        <v>-0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1">
+        <v>650</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F142">
+        <v>60</v>
+      </c>
+      <c r="G142" t="s">
+        <v>209</v>
+      </c>
+      <c r="H142" t="s">
+        <v>230</v>
+      </c>
+      <c r="I142">
+        <v>-2100</v>
+      </c>
+      <c r="J142">
+        <v>-0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1">
+        <v>651</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F143">
+        <v>35</v>
+      </c>
+      <c r="G143" t="s">
+        <v>209</v>
+      </c>
+      <c r="H143" t="s">
+        <v>230</v>
+      </c>
+      <c r="I143">
+        <v>-39958</v>
+      </c>
+      <c r="J143">
+        <v>-0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="1">
+        <v>652</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" t="s">
+        <v>208</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44733</v>
+      </c>
+      <c r="F144">
+        <v>45</v>
+      </c>
+      <c r="G144" t="s">
+        <v>209</v>
+      </c>
+      <c r="H144" t="s">
+        <v>230</v>
+      </c>
+      <c r="I144">
+        <v>-18000</v>
+      </c>
+      <c r="J144">
+        <v>-0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="1">
+        <v>653</v>
+      </c>
+      <c r="B145" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="s">
+        <v>199</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F145">
+        <v>3.62</v>
+      </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" t="s">
+        <v>231</v>
+      </c>
+      <c r="I145">
+        <v>-700</v>
+      </c>
+      <c r="J145">
+        <v>-0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="1">
+        <v>654</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F146">
+        <v>3.19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>209</v>
+      </c>
+      <c r="H146" t="s">
+        <v>231</v>
+      </c>
+      <c r="I146">
+        <v>-1406</v>
+      </c>
+      <c r="J146">
+        <v>-0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="1">
+        <v>655</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147" t="s">
+        <v>202</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F147">
+        <v>3.48</v>
+      </c>
+      <c r="G147" t="s">
+        <v>209</v>
+      </c>
+      <c r="H147" t="s">
+        <v>231</v>
+      </c>
+      <c r="I147">
+        <v>-529</v>
+      </c>
+      <c r="J147">
+        <v>-0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="1">
+        <v>656</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C148" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" t="s">
+        <v>202</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44719</v>
+      </c>
+      <c r="F148">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G148" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148" t="s">
+        <v>232</v>
+      </c>
+      <c r="I148">
+        <v>-1357</v>
+      </c>
+      <c r="J148">
+        <v>-0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="1">
+        <v>657</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F149">
+        <v>0.03</v>
+      </c>
+      <c r="G149" t="s">
+        <v>209</v>
+      </c>
+      <c r="H149" t="s">
+        <v>232</v>
+      </c>
+      <c r="I149">
+        <v>-5031</v>
+      </c>
+      <c r="J149">
+        <v>-0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="1">
+        <v>658</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>202</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F150">
+        <v>0.03</v>
+      </c>
+      <c r="G150" t="s">
+        <v>209</v>
+      </c>
+      <c r="H150" t="s">
+        <v>232</v>
+      </c>
+      <c r="I150">
+        <v>-34800</v>
+      </c>
+      <c r="J150">
+        <v>-0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="1">
+        <v>659</v>
+      </c>
+      <c r="B151" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" t="s">
+        <v>202</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F151">
+        <v>0.03</v>
+      </c>
+      <c r="G151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H151" t="s">
+        <v>232</v>
+      </c>
+      <c r="I151">
+        <v>-25200</v>
+      </c>
+      <c r="J151">
+        <v>-0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" s="1">
+        <v>660</v>
+      </c>
+      <c r="B152" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C152" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" t="s">
+        <v>201</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F152">
+        <v>2.54</v>
+      </c>
+      <c r="G152" t="s">
+        <v>209</v>
+      </c>
+      <c r="H152" t="s">
+        <v>233</v>
+      </c>
+      <c r="I152">
+        <v>-5776</v>
+      </c>
+      <c r="J152">
+        <v>-0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" s="1">
+        <v>661</v>
+      </c>
+      <c r="B153" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" t="s">
+        <v>201</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F153">
+        <v>2.3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>209</v>
+      </c>
+      <c r="H153" t="s">
+        <v>233</v>
+      </c>
+      <c r="I153">
+        <v>-400</v>
+      </c>
+      <c r="J153">
+        <v>-0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="1">
+        <v>662</v>
+      </c>
+      <c r="B154" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" t="s">
+        <v>201</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F154">
+        <v>2.3</v>
+      </c>
+      <c r="G154" t="s">
+        <v>209</v>
+      </c>
+      <c r="H154" t="s">
+        <v>233</v>
+      </c>
+      <c r="I154">
+        <v>-200</v>
+      </c>
+      <c r="J154">
+        <v>-0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="1">
+        <v>663</v>
+      </c>
+      <c r="B155" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F155">
+        <v>2.3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>209</v>
+      </c>
+      <c r="H155" t="s">
+        <v>233</v>
+      </c>
+      <c r="I155">
+        <v>-15200</v>
+      </c>
+      <c r="J155">
+        <v>-0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="1">
+        <v>664</v>
+      </c>
+      <c r="B156" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" t="s">
+        <v>202</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44706</v>
+      </c>
+      <c r="F156">
+        <v>4.82</v>
+      </c>
+      <c r="G156" t="s">
+        <v>209</v>
+      </c>
+      <c r="H156" t="s">
+        <v>233</v>
+      </c>
+      <c r="I156">
+        <v>-1400</v>
+      </c>
+      <c r="J156">
+        <v>-0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="1">
+        <v>665</v>
+      </c>
+      <c r="B157" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>199</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44722</v>
+      </c>
+      <c r="F157">
+        <v>0.08</v>
+      </c>
+      <c r="G157" t="s">
+        <v>209</v>
+      </c>
+      <c r="H157" t="s">
+        <v>234</v>
+      </c>
+      <c r="I157">
+        <v>-356</v>
+      </c>
+      <c r="J157">
+        <v>-0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="1">
+        <v>666</v>
+      </c>
+      <c r="B158" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44736</v>
+      </c>
+      <c r="F158">
+        <v>0.08</v>
+      </c>
+      <c r="G158" t="s">
+        <v>209</v>
+      </c>
+      <c r="H158" t="s">
+        <v>234</v>
+      </c>
+      <c r="I158">
+        <v>-1600</v>
+      </c>
+      <c r="J158">
+        <v>-0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="1">
+        <v>667</v>
+      </c>
+      <c r="B159" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159" t="s">
+        <v>202</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F159">
+        <v>0.38</v>
+      </c>
+      <c r="G159" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159" t="s">
+        <v>235</v>
+      </c>
+      <c r="I159">
+        <v>-1335</v>
+      </c>
+      <c r="J159">
+        <v>-0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="1">
+        <v>668</v>
+      </c>
+      <c r="B160" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>202</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F160">
+        <v>0.09</v>
+      </c>
+      <c r="G160" t="s">
+        <v>209</v>
+      </c>
+      <c r="H160" t="s">
+        <v>236</v>
+      </c>
+      <c r="I160">
+        <v>-1447</v>
+      </c>
+      <c r="J160">
+        <v>-0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" s="1">
+        <v>669</v>
+      </c>
+      <c r="B161" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C161" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161" t="s">
+        <v>202</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F161">
+        <v>0.09</v>
+      </c>
+      <c r="G161" t="s">
+        <v>209</v>
+      </c>
+      <c r="H161" t="s">
+        <v>236</v>
+      </c>
+      <c r="I161">
+        <v>-3000</v>
+      </c>
+      <c r="J161">
+        <v>-0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" s="1">
+        <v>670</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C162" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" t="s">
+        <v>199</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F162">
+        <v>0.04</v>
+      </c>
+      <c r="G162" t="s">
+        <v>209</v>
+      </c>
+      <c r="H162" t="s">
+        <v>237</v>
+      </c>
+      <c r="I162">
+        <v>-20840</v>
+      </c>
+      <c r="J162">
+        <v>-0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" s="1">
+        <v>671</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C163" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" t="s">
+        <v>208</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F163">
+        <v>0.3</v>
+      </c>
+      <c r="G163" t="s">
+        <v>209</v>
+      </c>
+      <c r="H163" t="s">
+        <v>237</v>
+      </c>
+      <c r="I163">
+        <v>-9600</v>
+      </c>
+      <c r="J163">
+        <v>-0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" s="1">
+        <v>672</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C164" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" t="s">
+        <v>208</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F164">
+        <v>0.3</v>
+      </c>
+      <c r="G164" t="s">
+        <v>209</v>
+      </c>
+      <c r="H164" t="s">
+        <v>237</v>
+      </c>
+      <c r="I164">
+        <v>-1310</v>
+      </c>
+      <c r="J164">
+        <v>-0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" s="1">
+        <v>673</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" t="s">
+        <v>208</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F165">
+        <v>0.3</v>
+      </c>
+      <c r="G165" t="s">
+        <v>209</v>
+      </c>
+      <c r="H165" t="s">
+        <v>237</v>
+      </c>
+      <c r="I165">
+        <v>-14270</v>
+      </c>
+      <c r="J165">
+        <v>-0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" s="1">
+        <v>674</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C166" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F166">
+        <v>2.49</v>
+      </c>
+      <c r="G166" t="s">
+        <v>209</v>
+      </c>
+      <c r="H166" t="s">
+        <v>238</v>
+      </c>
+      <c r="I166">
+        <v>-119600</v>
+      </c>
+      <c r="J166">
+        <v>-0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="1">
+        <v>675</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>207</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F167">
+        <v>2.49</v>
+      </c>
+      <c r="G167" t="s">
+        <v>209</v>
+      </c>
+      <c r="H167" t="s">
+        <v>238</v>
+      </c>
+      <c r="I167">
+        <v>-1600</v>
+      </c>
+      <c r="J167">
+        <v>-0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="1">
+        <v>676</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C168" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168" t="s">
+        <v>207</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F168">
+        <v>1.99</v>
+      </c>
+      <c r="G168" t="s">
+        <v>209</v>
+      </c>
+      <c r="H168" t="s">
+        <v>238</v>
+      </c>
+      <c r="I168">
+        <v>-38065</v>
+      </c>
+      <c r="J168">
+        <v>-0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" s="1">
+        <v>677</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169" t="s">
+        <v>199</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44701</v>
+      </c>
+      <c r="F169">
+        <v>3.74</v>
+      </c>
+      <c r="G169" t="s">
+        <v>209</v>
+      </c>
+      <c r="H169" t="s">
+        <v>238</v>
+      </c>
+      <c r="I169">
+        <v>-727500</v>
+      </c>
+      <c r="J169">
+        <v>-0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="1">
+        <v>678</v>
+      </c>
+      <c r="B170" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C170" t="s">
+        <v>183</v>
+      </c>
+      <c r="D170" t="s">
+        <v>199</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44704</v>
+      </c>
+      <c r="F170">
+        <v>3.7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>209</v>
+      </c>
+      <c r="H170" t="s">
+        <v>238</v>
+      </c>
+      <c r="I170">
+        <v>-93870</v>
+      </c>
+      <c r="J170">
+        <v>-0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" s="1">
+        <v>679</v>
+      </c>
+      <c r="B171" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171" t="s">
+        <v>199</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44705</v>
+      </c>
+      <c r="F171">
+        <v>3.63</v>
+      </c>
+      <c r="G171" t="s">
+        <v>209</v>
+      </c>
+      <c r="H171" t="s">
+        <v>238</v>
+      </c>
+      <c r="I171">
+        <v>-229700</v>
+      </c>
+      <c r="J171">
+        <v>-0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="1">
+        <v>680</v>
+      </c>
+      <c r="B172" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172" t="s">
+        <v>199</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44711</v>
+      </c>
+      <c r="F172">
+        <v>3.53</v>
+      </c>
+      <c r="G172" t="s">
+        <v>209</v>
+      </c>
+      <c r="H172" t="s">
+        <v>238</v>
+      </c>
+      <c r="I172">
+        <v>-311400</v>
+      </c>
+      <c r="J172">
+        <v>-0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" s="1">
+        <v>681</v>
+      </c>
+      <c r="B173" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" t="s">
+        <v>199</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F173">
+        <v>2.49</v>
+      </c>
+      <c r="G173" t="s">
+        <v>209</v>
+      </c>
+      <c r="H173" t="s">
+        <v>238</v>
+      </c>
+      <c r="I173">
+        <v>-7339</v>
+      </c>
+      <c r="J173">
+        <v>-0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" s="1">
+        <v>682</v>
+      </c>
+      <c r="B174" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174" t="s">
+        <v>199</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F174">
+        <v>2.49</v>
+      </c>
+      <c r="G174" t="s">
+        <v>209</v>
+      </c>
+      <c r="H174" t="s">
+        <v>238</v>
+      </c>
+      <c r="I174">
+        <v>-256</v>
+      </c>
+      <c r="J174">
+        <v>-0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" s="1">
+        <v>683</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C175" t="s">
+        <v>188</v>
+      </c>
+      <c r="D175" t="s">
+        <v>199</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44720</v>
+      </c>
+      <c r="F175">
+        <v>2.45</v>
+      </c>
+      <c r="G175" t="s">
+        <v>209</v>
+      </c>
+      <c r="H175" t="s">
+        <v>238</v>
+      </c>
+      <c r="I175">
+        <v>-23398</v>
+      </c>
+      <c r="J175">
+        <v>-0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" s="1">
+        <v>684</v>
+      </c>
+      <c r="B176" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C176" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176" t="s">
+        <v>199</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44722</v>
+      </c>
+      <c r="F176">
+        <v>2.42</v>
+      </c>
+      <c r="G176" t="s">
+        <v>209</v>
+      </c>
+      <c r="H176" t="s">
+        <v>238</v>
+      </c>
+      <c r="I176">
+        <v>-734</v>
+      </c>
+      <c r="J176">
+        <v>-0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="A177" s="1">
+        <v>685</v>
+      </c>
+      <c r="B177" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C177" t="s">
+        <v>190</v>
+      </c>
+      <c r="D177" t="s">
+        <v>199</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44722</v>
+      </c>
+      <c r="F177">
+        <v>2.42</v>
+      </c>
+      <c r="G177" t="s">
+        <v>209</v>
+      </c>
+      <c r="H177" t="s">
+        <v>238</v>
+      </c>
+      <c r="I177">
+        <v>-51173</v>
+      </c>
+      <c r="J177">
+        <v>-0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" s="1">
+        <v>686</v>
+      </c>
+      <c r="B178" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C178" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" t="s">
+        <v>199</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44722</v>
+      </c>
+      <c r="F178">
+        <v>2.42</v>
+      </c>
+      <c r="G178" t="s">
+        <v>209</v>
+      </c>
+      <c r="H178" t="s">
+        <v>238</v>
+      </c>
+      <c r="I178">
+        <v>-5900</v>
+      </c>
+      <c r="J178">
+        <v>-0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" s="1">
+        <v>687</v>
+      </c>
+      <c r="B179" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C179" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179" t="s">
+        <v>199</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F179">
+        <v>2.11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>209</v>
+      </c>
+      <c r="H179" t="s">
+        <v>238</v>
+      </c>
+      <c r="I179">
+        <v>-55246</v>
+      </c>
+      <c r="J179">
+        <v>-0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" s="1">
+        <v>688</v>
+      </c>
+      <c r="B180" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+      <c r="D180" t="s">
+        <v>199</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44735</v>
+      </c>
+      <c r="F180">
+        <v>1.88</v>
+      </c>
+      <c r="G180" t="s">
+        <v>209</v>
+      </c>
+      <c r="H180" t="s">
+        <v>238</v>
+      </c>
+      <c r="I180">
+        <v>-20699</v>
+      </c>
+      <c r="J180">
+        <v>-0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" s="1">
+        <v>689</v>
+      </c>
+      <c r="B181" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F181">
+        <v>2.67</v>
+      </c>
+      <c r="G181" t="s">
+        <v>209</v>
+      </c>
+      <c r="H181" t="s">
+        <v>238</v>
+      </c>
+      <c r="I181">
+        <v>-214500</v>
+      </c>
+      <c r="J181">
+        <v>-0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" s="1">
+        <v>690</v>
+      </c>
+      <c r="B182" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C182" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182" t="s">
+        <v>201</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F182">
+        <v>2.67</v>
+      </c>
+      <c r="G182" t="s">
+        <v>209</v>
+      </c>
+      <c r="H182" t="s">
+        <v>238</v>
+      </c>
+      <c r="I182">
+        <v>-373</v>
+      </c>
+      <c r="J182">
+        <v>-0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" s="1">
+        <v>691</v>
+      </c>
+      <c r="B183" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C183" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" t="s">
+        <v>201</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F183">
+        <v>2.67</v>
+      </c>
+      <c r="G183" t="s">
+        <v>209</v>
+      </c>
+      <c r="H183" t="s">
+        <v>238</v>
+      </c>
+      <c r="I183">
+        <v>-1500</v>
+      </c>
+      <c r="J183">
+        <v>-0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" s="1">
+        <v>692</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C184" t="s">
+        <v>197</v>
+      </c>
+      <c r="D184" t="s">
+        <v>201</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44726</v>
+      </c>
+      <c r="F184">
+        <v>1.99</v>
+      </c>
+      <c r="G184" t="s">
+        <v>209</v>
+      </c>
+      <c r="H184" t="s">
+        <v>238</v>
+      </c>
+      <c r="I184">
+        <v>-92600</v>
+      </c>
+      <c r="J184">
+        <v>-0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" s="1">
+        <v>693</v>
+      </c>
+      <c r="B185" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C185" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44734</v>
+      </c>
+      <c r="F185">
+        <v>2.11</v>
+      </c>
+      <c r="G185" t="s">
+        <v>209</v>
+      </c>
+      <c r="H185" t="s">
+        <v>238</v>
+      </c>
+      <c r="I185">
+        <v>-48700</v>
+      </c>
+      <c r="J185">
+        <v>-0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
         <v>0</v>
       </c>
     </row>
